--- a/outputs-HGR-r202/g__Enterococcus.xlsx
+++ b/outputs-HGR-r202/g__Enterococcus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1338,6 +1338,1914 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3231.fa</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3233.fa</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3477.fa</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3479.fa</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3561.fa</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT41.fa</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43425.fa</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43462.fa</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43573.fa</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43577.fa</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43620.fa</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43751.fa</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43943.fa</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT44539.fa</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT44544.fa</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT44617.fa</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT46437.fa</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT46868.fa</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48498.fa</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48566.fa</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48585.fa</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48612.fa</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48754.fa</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48804.fa</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48834.fa</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48968.fa</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48971.fa</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48976.fa</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49004.fa</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49015.fa</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49070.fa</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49075.fa</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49083.fa</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49101.fa</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49170.fa</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49236.fa</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49289.fa</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49302.fa</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49315.fa</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49329.fa</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49359.fa</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49403.fa</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49456.fa</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49469.fa</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49529.fa</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49535.fa</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49539.fa</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49541.fa</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49609.fa</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6222.fa</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6229.fa</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6233.fa</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6238.fa</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6241.fa</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6274.fa</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6291.fa</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69501.fa</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7062.fa</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7090.fa</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7102.fa</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7118.fa</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7213.fa</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7216.fa</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7222.fa</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7253.fa</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7278.fa</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91192.fa</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91196.fa</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91262.fa</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91264.fa</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91267.fa</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91272.fa</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91297.fa</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91320.fa</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91330.fa</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91385.fa</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91468.fa</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91486.fa</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91490.fa</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91491.fa</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91492.fa</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91496.fa</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91520.fa</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91536.fa</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91546.fa</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91568.fa</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91712.fa</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91717.fa</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91779.fa</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91815.fa</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91818.fa</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91821.fa</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91823.fa</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91860.fa</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91882.fa</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91886.fa</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91911.fa</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91912.fa</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91923.fa</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91926.fa</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91932.fa</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91941.fa</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91954.fa</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92006.fa</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92066.fa</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92111.fa</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-HGR-r202/g__Enterococcus.xlsx
+++ b/outputs-HGR-r202/g__Enterococcus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D156"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +524,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -527,6 +547,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +570,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -563,6 +593,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +616,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -599,6 +639,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -617,6 +662,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -635,6 +685,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -653,6 +708,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -671,6 +731,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -689,6 +754,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -707,6 +777,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -725,6 +800,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -743,6 +823,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -761,6 +846,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -779,6 +869,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -797,6 +892,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -815,6 +915,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -833,6 +938,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -851,6 +961,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -869,6 +984,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -887,6 +1007,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -905,6 +1030,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -923,6 +1053,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -941,6 +1076,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -959,6 +1099,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -977,6 +1122,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -995,6 +1145,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1013,6 +1168,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1031,6 +1191,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1049,6 +1214,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1067,6 +1237,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1085,6 +1260,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1103,6 +1283,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1121,6 +1306,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1139,6 +1329,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1157,6 +1352,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1175,6 +1375,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1193,6 +1398,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1211,6 +1421,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1229,6 +1444,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1247,6 +1467,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1265,6 +1490,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1283,6 +1513,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1301,6 +1536,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1319,6 +1559,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1337,6 +1582,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1355,6 +1605,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1373,6 +1628,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1391,6 +1651,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1409,6 +1674,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1427,6 +1697,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1445,6 +1720,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1463,6 +1743,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1481,6 +1766,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1499,6 +1789,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1517,6 +1812,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1535,6 +1835,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1553,6 +1858,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1571,6 +1881,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1589,6 +1904,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -1607,6 +1927,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1625,6 +1950,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -1643,6 +1973,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -1661,6 +1996,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -1679,6 +2019,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -1697,6 +2042,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -1715,6 +2065,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -1733,6 +2088,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -1751,6 +2111,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -1769,6 +2134,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -1787,6 +2157,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -1805,6 +2180,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -1823,6 +2203,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -1841,6 +2226,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -1859,6 +2249,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -1877,6 +2272,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -1895,6 +2295,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -1913,6 +2318,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -1931,6 +2341,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -1949,6 +2364,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -1967,6 +2387,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -1985,6 +2410,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2003,6 +2433,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2021,6 +2456,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2039,6 +2479,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2057,6 +2502,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2075,6 +2525,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -2093,6 +2548,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2111,6 +2571,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2129,6 +2594,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -2147,6 +2617,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -2165,6 +2640,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -2183,6 +2663,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -2201,6 +2686,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -2219,6 +2709,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -2237,6 +2732,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -2255,6 +2755,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -2273,6 +2778,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -2291,6 +2801,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -2309,6 +2824,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -2327,6 +2847,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -2345,6 +2870,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -2363,6 +2893,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -2381,6 +2916,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -2399,6 +2939,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -2417,6 +2962,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -2435,6 +2985,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -2453,6 +3008,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -2471,6 +3031,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -2489,6 +3054,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -2507,6 +3077,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -2525,6 +3100,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -2543,6 +3123,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -2561,6 +3146,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -2579,6 +3169,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -2597,6 +3192,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -2615,6 +3215,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -2633,6 +3238,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -2651,6 +3261,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -2669,6 +3284,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -2687,6 +3307,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -2705,6 +3330,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -2723,6 +3353,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -2741,6 +3376,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -2759,6 +3399,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -2777,6 +3422,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -2795,6 +3445,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -2813,6 +3468,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -2831,6 +3491,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -2849,6 +3514,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -2867,6 +3537,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -2885,6 +3560,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -2903,6 +3583,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -2921,6 +3606,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -2939,6 +3629,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -2957,6 +3652,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -2975,6 +3675,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -2993,6 +3698,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -3011,6 +3721,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -3029,6 +3744,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -3047,6 +3767,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -3065,6 +3790,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -3083,6 +3813,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -3101,6 +3836,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -3119,6 +3859,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -3137,6 +3882,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -3155,6 +3905,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -3173,6 +3928,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -3191,6 +3951,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -3209,6 +3974,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -3227,6 +3997,11 @@
           <t>s__Enterococcus faecalis</t>
         </is>
       </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -3241,6 +4016,11 @@
         <v>1</v>
       </c>
       <c r="D156" t="inlineStr">
+        <is>
+          <t>s__Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
         <is>
           <t>s__Enterococcus faecalis</t>
         </is>
